--- a/files/new.xlsx
+++ b/files/new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="4425" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="FO-GPP-07" state="visible" r:id="rId4"/>
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>GESTION DE PLANEACION Y PROYECTOS</t>
   </si>
   <si>
-    <t>Código: FO-GPP-07</t>
+    <t>string</t>
   </si>
   <si>
     <t>Fecha: 03/04/2019</t>
@@ -37,45 +37,24 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>Alberto</t>
-  </si>
-  <si>
     <t>FECHA VISITA</t>
   </si>
   <si>
-    <t>12/12/1999</t>
-  </si>
-  <si>
     <t>NOMBRE DEL SITIO</t>
   </si>
   <si>
-    <t>Malecon</t>
-  </si>
-  <si>
     <t>DIRECCION</t>
   </si>
   <si>
-    <t>Calle ...</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN BREVE DE LA OBRA</t>
   </si>
   <si>
-    <t>La obra va joya</t>
-  </si>
-  <si>
-    <t>Calle ... Carrera</t>
-  </si>
-  <si>
     <t>DESARROLLO DEL INFORME</t>
   </si>
   <si>
     <t>COMENTARIOS RELEVANTES DE LA VISITA DE OBRA</t>
   </si>
   <si>
-    <t>Falta cantidad importante de materiales asdkjfa sdlfjals kdjfal;skdjf;lajsd lfajslfdjasldfjaks hdfkahsdfkjahskd hfkasdf asdfasdfasldfjalsdjfljalsj laskdjflaksjdlfkajsldkfj alskdjflasjdlfkjls djflas jlfkj sld jlaskdjfl ajsldfkajsl</t>
-  </si>
-  <si>
     <t>DESCRIPCION DE ALCANCES DE TRABAJOS</t>
   </si>
   <si>
@@ -85,10 +64,58 @@
     <t>DESCRIPCION DEL ALCANCE</t>
   </si>
   <si>
-    <t>Transporte de materiales</t>
-  </si>
-  <si>
-    <t>Llevar el cemento</t>
+    <t>string1</t>
+  </si>
+  <si>
+    <t>string1.5</t>
+  </si>
+  <si>
+    <t>string2</t>
+  </si>
+  <si>
+    <t>string2.5</t>
+  </si>
+  <si>
+    <t>string3</t>
+  </si>
+  <si>
+    <t>string3.5</t>
+  </si>
+  <si>
+    <t>string4</t>
+  </si>
+  <si>
+    <t>string4.5</t>
+  </si>
+  <si>
+    <t>string5</t>
+  </si>
+  <si>
+    <t>string5.5</t>
+  </si>
+  <si>
+    <t>string6</t>
+  </si>
+  <si>
+    <t>string6.5</t>
+  </si>
+  <si>
+    <t>string7</t>
+  </si>
+  <si>
+    <t>string7.5</t>
+  </si>
+  <si>
+    <t>string8</t>
+  </si>
+  <si>
+    <t>string8.5</t>
+  </si>
+  <si>
+    <t>string9</t>
+  </si>
+  <si>
+    <t>string9.5</t>
   </si>
   <si>
     <t>FOTOS DESARROLLO DEL TRABAJO</t>
@@ -474,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,9 +661,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,12 +670,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,9 +686,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +767,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>35999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2476500" cy="2190750"/>
@@ -791,7 +806,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>320000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>35999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3333750" cy="2190750"/>
@@ -830,7 +845,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>320000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>35999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3333750" cy="2190750"/>
@@ -869,7 +884,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>448000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>53999</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2190750" cy="695325"/>
@@ -1204,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" zoomScale="70" zoomScaleNormal="80">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" defaultColWidth="20" customHeight="1"/>
@@ -1276,15 +1291,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="4.5" customHeight="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1297,18 +1312,18 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="5.25" customHeight="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1321,18 +1336,18 @@
     </row>
     <row r="10" ht="32.25" customHeight="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="6.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,7 +1360,7 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -1363,7 +1378,7 @@
     </row>
     <row r="14" ht="23.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -1373,7 +1388,7 @@
     </row>
     <row r="15" ht="104.25" customHeight="1" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -1391,7 +1406,7 @@
     </row>
     <row r="17" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -1401,10 +1416,10 @@
     </row>
     <row r="18" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -1413,10 +1428,10 @@
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -1424,218 +1439,294 @@
       <c r="F19" s="51"/>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
     </row>
     <row r="21" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
+    <row r="22" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
     </row>
-    <row r="23" ht="17.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
+    <row r="23" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+    <row r="24" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
     </row>
-    <row r="25" ht="9.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" ht="4.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" ht="177" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-    </row>
-    <row r="29" ht="5.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-    </row>
-    <row r="30" ht="164.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" ht="3.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" ht="177" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" ht="6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+    <row r="25" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" ht="9.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" ht="4.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" ht="177" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" ht="5.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" ht="164.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-    </row>
-    <row r="34" ht="178.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" ht="5.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" ht="3.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" ht="177" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" ht="160.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-    </row>
-    <row r="37" ht="6.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-    </row>
-    <row r="38" ht="62.1" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-    </row>
-    <row r="39" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" ht="6" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+    </row>
+    <row r="37" ht="178.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+    </row>
+    <row r="38" ht="5.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" ht="160.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+    </row>
+    <row r="40" ht="6.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+    </row>
+    <row r="41" ht="62" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+    </row>
+    <row r="42" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="47">
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B3:E4"/>
@@ -1658,28 +1749,31 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation showInputMessage="1" prompt="Describa observaciones adicionales que sean relevantes para el proyecto, las cuales puedan generar diferencias entre la cotización y lo que se ejecute." showErrorMessage="1" sqref="A15:A16"/>
